--- a/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/1.1. Операторы (1С, Все ТА).xlsx
+++ b/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/1.1. Операторы (1С, Все ТА).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC419DDE-4B07-4083-8BB8-9322A88C2B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Установочные" sheetId="96" r:id="rId1"/>
@@ -13,13 +14,27 @@
     <sheet name="05.09" sheetId="120" r:id="rId4"/>
     <sheet name="06.09" sheetId="121" r:id="rId5"/>
     <sheet name="07.09" sheetId="122" r:id="rId6"/>
+    <sheet name="08.09" sheetId="123" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="40">
   <si>
     <t>ПЛАН</t>
   </si>
@@ -135,16 +150,16 @@
     <t>06.09.2022</t>
   </si>
   <si>
-    <t>07.09</t>
+    <t>07.09.2022</t>
   </si>
   <si>
-    <t>07.09.2022</t>
+    <t>08.09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -281,7 +296,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -436,6 +451,51 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -499,68 +559,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_01.09" xfId="1"/>
-    <cellStyle name="Обычный_02.09" xfId="2"/>
-    <cellStyle name="Обычный_05.09" xfId="3"/>
-    <cellStyle name="Обычный_06.09" xfId="4"/>
-    <cellStyle name="Обычный_07.09" xfId="5"/>
+    <cellStyle name="Обычный_01.09" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный_02.09" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный_05.09" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный_06.09" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный_07.09" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -609,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,9 +669,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,6 +721,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -852,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <tabColor theme="8"/>
   </sheetPr>
@@ -878,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1">
         <f>LEN(D1)</f>
@@ -1252,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1262,32 +1323,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1318,10 +1379,10 @@
       <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="58"/>
+      <c r="M2" s="73"/>
       <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2016,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2026,32 +2087,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2082,10 +2143,10 @@
       <c r="K2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="63"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="19" t="s">
         <v>16</v>
       </c>
@@ -2782,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2792,32 +2853,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
@@ -2848,10 +2909,10 @@
       <c r="K2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="68"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="31" t="s">
         <v>16</v>
       </c>
@@ -3523,7 +3584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3533,32 +3594,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
       <c r="Q1" s="42"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
@@ -3589,10 +3650,10 @@
       <c r="K2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="73"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="43" t="s">
         <v>16</v>
       </c>
@@ -4256,7 +4317,744 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="93"/>
+      <c r="N2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="60">
+        <v>75</v>
+      </c>
+      <c r="C3" s="60">
+        <v>74</v>
+      </c>
+      <c r="D3" s="60">
+        <v>65</v>
+      </c>
+      <c r="E3" s="60">
+        <v>1</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="60">
+        <v>74</v>
+      </c>
+      <c r="H3" s="60">
+        <v>75</v>
+      </c>
+      <c r="I3" s="60">
+        <v>74</v>
+      </c>
+      <c r="J3" s="60">
+        <v>65</v>
+      </c>
+      <c r="K3" s="60">
+        <v>1</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="60">
+        <v>74</v>
+      </c>
+      <c r="N3" s="62">
+        <v>98.7</v>
+      </c>
+      <c r="O3" s="62">
+        <v>98.7</v>
+      </c>
+      <c r="P3" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="60">
+        <v>111</v>
+      </c>
+      <c r="C4" s="60">
+        <v>119</v>
+      </c>
+      <c r="D4" s="60">
+        <v>105</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="60">
+        <v>55</v>
+      </c>
+      <c r="H4" s="60">
+        <v>111</v>
+      </c>
+      <c r="I4" s="60">
+        <v>119</v>
+      </c>
+      <c r="J4" s="60">
+        <v>105</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="60">
+        <v>55</v>
+      </c>
+      <c r="N4" s="62">
+        <v>107.2</v>
+      </c>
+      <c r="O4" s="62">
+        <v>49.5</v>
+      </c>
+      <c r="P4" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="62">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="60">
+        <v>53</v>
+      </c>
+      <c r="C5" s="60">
+        <v>53</v>
+      </c>
+      <c r="D5" s="60">
+        <v>52</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60">
+        <v>53</v>
+      </c>
+      <c r="H5" s="60">
+        <v>53</v>
+      </c>
+      <c r="I5" s="60">
+        <v>53</v>
+      </c>
+      <c r="J5" s="60">
+        <v>52</v>
+      </c>
+      <c r="K5" s="63"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="60">
+        <v>53</v>
+      </c>
+      <c r="N5" s="62">
+        <v>100</v>
+      </c>
+      <c r="O5" s="62">
+        <v>100</v>
+      </c>
+      <c r="P5" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="62">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="60">
+        <v>57</v>
+      </c>
+      <c r="C6" s="60">
+        <v>48</v>
+      </c>
+      <c r="D6" s="60">
+        <v>46</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60">
+        <v>48</v>
+      </c>
+      <c r="H6" s="60">
+        <v>57</v>
+      </c>
+      <c r="I6" s="60">
+        <v>48</v>
+      </c>
+      <c r="J6" s="60">
+        <v>46</v>
+      </c>
+      <c r="K6" s="63"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="60">
+        <v>48</v>
+      </c>
+      <c r="N6" s="62">
+        <v>84.2</v>
+      </c>
+      <c r="O6" s="62">
+        <v>84.2</v>
+      </c>
+      <c r="P6" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="62">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="60">
+        <v>78</v>
+      </c>
+      <c r="C7" s="60">
+        <v>70</v>
+      </c>
+      <c r="D7" s="60">
+        <v>69</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60">
+        <v>70</v>
+      </c>
+      <c r="H7" s="60">
+        <v>78</v>
+      </c>
+      <c r="I7" s="60">
+        <v>70</v>
+      </c>
+      <c r="J7" s="60">
+        <v>69</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="60">
+        <v>70</v>
+      </c>
+      <c r="N7" s="62">
+        <v>89.7</v>
+      </c>
+      <c r="O7" s="62">
+        <v>89.7</v>
+      </c>
+      <c r="P7" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="62">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="60">
+        <v>74</v>
+      </c>
+      <c r="C8" s="60">
+        <v>70</v>
+      </c>
+      <c r="D8" s="60">
+        <v>70</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="60">
+        <v>70</v>
+      </c>
+      <c r="H8" s="60">
+        <v>74</v>
+      </c>
+      <c r="I8" s="60">
+        <v>70</v>
+      </c>
+      <c r="J8" s="60">
+        <v>70</v>
+      </c>
+      <c r="K8" s="63"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="60">
+        <v>70</v>
+      </c>
+      <c r="N8" s="62">
+        <v>94.6</v>
+      </c>
+      <c r="O8" s="62">
+        <v>94.6</v>
+      </c>
+      <c r="P8" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="62">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="60">
+        <v>62</v>
+      </c>
+      <c r="C9" s="60">
+        <v>58</v>
+      </c>
+      <c r="D9" s="60">
+        <v>58</v>
+      </c>
+      <c r="E9" s="60">
+        <v>2</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="60">
+        <v>58</v>
+      </c>
+      <c r="H9" s="60">
+        <v>62</v>
+      </c>
+      <c r="I9" s="60">
+        <v>58</v>
+      </c>
+      <c r="J9" s="60">
+        <v>58</v>
+      </c>
+      <c r="K9" s="60">
+        <v>2</v>
+      </c>
+      <c r="L9" s="61"/>
+      <c r="M9" s="60">
+        <v>58</v>
+      </c>
+      <c r="N9" s="62">
+        <v>93.5</v>
+      </c>
+      <c r="O9" s="62">
+        <v>93.5</v>
+      </c>
+      <c r="P9" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="62">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="60">
+        <v>48</v>
+      </c>
+      <c r="C10" s="60">
+        <v>52</v>
+      </c>
+      <c r="D10" s="60">
+        <v>50</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60">
+        <v>36</v>
+      </c>
+      <c r="H10" s="60">
+        <v>48</v>
+      </c>
+      <c r="I10" s="60">
+        <v>52</v>
+      </c>
+      <c r="J10" s="60">
+        <v>50</v>
+      </c>
+      <c r="K10" s="63"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="60">
+        <v>36</v>
+      </c>
+      <c r="N10" s="62">
+        <v>108.3</v>
+      </c>
+      <c r="O10" s="62">
+        <v>75</v>
+      </c>
+      <c r="P10" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="62">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="60">
+        <v>28</v>
+      </c>
+      <c r="C11" s="60">
+        <v>24</v>
+      </c>
+      <c r="D11" s="60">
+        <v>23</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="60">
+        <v>23</v>
+      </c>
+      <c r="H11" s="60">
+        <v>28</v>
+      </c>
+      <c r="I11" s="60">
+        <v>24</v>
+      </c>
+      <c r="J11" s="60">
+        <v>23</v>
+      </c>
+      <c r="K11" s="63"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="60">
+        <v>23</v>
+      </c>
+      <c r="N11" s="62">
+        <v>85.7</v>
+      </c>
+      <c r="O11" s="62">
+        <v>82.1</v>
+      </c>
+      <c r="P11" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="62">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="60">
+        <v>20</v>
+      </c>
+      <c r="C12" s="60">
+        <v>19</v>
+      </c>
+      <c r="D12" s="60">
+        <v>18</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60">
+        <v>18</v>
+      </c>
+      <c r="H12" s="60">
+        <v>20</v>
+      </c>
+      <c r="I12" s="60">
+        <v>19</v>
+      </c>
+      <c r="J12" s="60">
+        <v>18</v>
+      </c>
+      <c r="K12" s="63"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="60">
+        <v>18</v>
+      </c>
+      <c r="N12" s="62">
+        <v>95</v>
+      </c>
+      <c r="O12" s="62">
+        <v>90</v>
+      </c>
+      <c r="P12" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="62">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="60">
+        <v>31</v>
+      </c>
+      <c r="C13" s="60">
+        <v>26</v>
+      </c>
+      <c r="D13" s="60">
+        <v>25</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="60">
+        <v>25</v>
+      </c>
+      <c r="H13" s="60">
+        <v>31</v>
+      </c>
+      <c r="I13" s="60">
+        <v>26</v>
+      </c>
+      <c r="J13" s="60">
+        <v>25</v>
+      </c>
+      <c r="K13" s="63"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="60">
+        <v>25</v>
+      </c>
+      <c r="N13" s="62">
+        <v>83.9</v>
+      </c>
+      <c r="O13" s="62">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="P13" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="62">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="60">
+        <v>70</v>
+      </c>
+      <c r="C14" s="60">
+        <v>74</v>
+      </c>
+      <c r="D14" s="60">
+        <v>73</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="60">
+        <v>70</v>
+      </c>
+      <c r="H14" s="60">
+        <v>70</v>
+      </c>
+      <c r="I14" s="60">
+        <v>74</v>
+      </c>
+      <c r="J14" s="60">
+        <v>73</v>
+      </c>
+      <c r="K14" s="63"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="60">
+        <v>70</v>
+      </c>
+      <c r="N14" s="62">
+        <v>105.7</v>
+      </c>
+      <c r="O14" s="62">
+        <v>100</v>
+      </c>
+      <c r="P14" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="62">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="60">
+        <v>77</v>
+      </c>
+      <c r="C15" s="60">
+        <v>72</v>
+      </c>
+      <c r="D15" s="60">
+        <v>72</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="60">
+        <v>72</v>
+      </c>
+      <c r="H15" s="60">
+        <v>77</v>
+      </c>
+      <c r="I15" s="60">
+        <v>72</v>
+      </c>
+      <c r="J15" s="60">
+        <v>72</v>
+      </c>
+      <c r="K15" s="63"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="60">
+        <v>72</v>
+      </c>
+      <c r="N15" s="62">
+        <v>93.5</v>
+      </c>
+      <c r="O15" s="62">
+        <v>93.5</v>
+      </c>
+      <c r="P15" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="62">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="64">
+        <v>784</v>
+      </c>
+      <c r="C16" s="64">
+        <v>759</v>
+      </c>
+      <c r="D16" s="64">
+        <v>726</v>
+      </c>
+      <c r="E16" s="64">
+        <v>3</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="64">
+        <v>672</v>
+      </c>
+      <c r="H16" s="64">
+        <v>784</v>
+      </c>
+      <c r="I16" s="64">
+        <v>759</v>
+      </c>
+      <c r="J16" s="64">
+        <v>726</v>
+      </c>
+      <c r="K16" s="64">
+        <v>3</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="64">
+        <v>672</v>
+      </c>
+      <c r="N16" s="65">
+        <v>96.8</v>
+      </c>
+      <c r="O16" s="65">
+        <v>85.7</v>
+      </c>
+      <c r="P16" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="65">
+        <v>26.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708D121C-54DE-4647-B833-6E859B54AD4F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4266,718 +5064,718 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
+      <c r="B1" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="79" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="79" t="s">
+      <c r="O2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="P2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="66" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="60">
         <v>75</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="60">
         <v>74</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="60">
         <v>65</v>
       </c>
-      <c r="E3" s="85">
-        <v>1</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="85">
+      <c r="E3" s="60">
+        <v>1</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="60">
         <v>74</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="60">
         <v>75</v>
       </c>
-      <c r="I3" s="85">
+      <c r="I3" s="60">
         <v>74</v>
       </c>
-      <c r="J3" s="85">
+      <c r="J3" s="60">
         <v>65</v>
       </c>
-      <c r="K3" s="85">
-        <v>1</v>
-      </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="85">
+      <c r="K3" s="60">
+        <v>1</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="60">
         <v>74</v>
       </c>
-      <c r="N3" s="87">
+      <c r="N3" s="62">
         <v>98.7</v>
       </c>
-      <c r="O3" s="87">
+      <c r="O3" s="62">
         <v>98.7</v>
       </c>
-      <c r="P3" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="87">
+      <c r="P3" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="62">
         <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="60">
         <v>111</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="60">
         <v>119</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="60">
         <v>105</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="85">
+      <c r="E4" s="63"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="60">
         <v>55</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="60">
         <v>111</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="60">
         <v>119</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="60">
         <v>105</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="85">
+      <c r="K4" s="63"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="60">
         <v>55</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="62">
         <v>107.2</v>
       </c>
-      <c r="O4" s="87">
+      <c r="O4" s="62">
         <v>49.5</v>
       </c>
-      <c r="P4" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="87">
+      <c r="P4" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="62">
         <v>20.3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="60">
         <v>53</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="60">
         <v>53</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="60">
         <v>52</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="85">
+      <c r="E5" s="63"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60">
         <v>53</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="60">
         <v>53</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="60">
         <v>53</v>
       </c>
-      <c r="J5" s="85">
+      <c r="J5" s="60">
         <v>52</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="85">
+      <c r="K5" s="63"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="60">
         <v>53</v>
       </c>
-      <c r="N5" s="87">
+      <c r="N5" s="62">
         <v>100</v>
       </c>
-      <c r="O5" s="87">
+      <c r="O5" s="62">
         <v>100</v>
       </c>
-      <c r="P5" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="87">
+      <c r="P5" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="62">
         <v>15.2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="60">
         <v>57</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="60">
         <v>48</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="60">
         <v>46</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="85">
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60">
         <v>48</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="60">
         <v>57</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="60">
         <v>48</v>
       </c>
-      <c r="J6" s="85">
+      <c r="J6" s="60">
         <v>46</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="85">
+      <c r="K6" s="63"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="60">
         <v>48</v>
       </c>
-      <c r="N6" s="87">
+      <c r="N6" s="62">
         <v>84.2</v>
       </c>
-      <c r="O6" s="87">
+      <c r="O6" s="62">
         <v>84.2</v>
       </c>
-      <c r="P6" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="87">
+      <c r="P6" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="62">
         <v>13.3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="60">
         <v>78</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="60">
         <v>70</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="60">
         <v>69</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="85">
+      <c r="E7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60">
         <v>70</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="60">
         <v>78</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="60">
         <v>70</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="60">
         <v>69</v>
       </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="85">
+      <c r="K7" s="63"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="60">
         <v>70</v>
       </c>
-      <c r="N7" s="87">
+      <c r="N7" s="62">
         <v>89.7</v>
       </c>
-      <c r="O7" s="87">
+      <c r="O7" s="62">
         <v>89.7</v>
       </c>
-      <c r="P7" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="87">
+      <c r="P7" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="62">
         <v>17.3</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="60">
         <v>74</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="60">
         <v>70</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="60">
         <v>70</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="85">
+      <c r="E8" s="63"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="60">
         <v>70</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="60">
         <v>74</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="60">
         <v>70</v>
       </c>
-      <c r="J8" s="85">
+      <c r="J8" s="60">
         <v>70</v>
       </c>
-      <c r="K8" s="88"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="85">
+      <c r="K8" s="63"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="60">
         <v>70</v>
       </c>
-      <c r="N8" s="87">
+      <c r="N8" s="62">
         <v>94.6</v>
       </c>
-      <c r="O8" s="87">
+      <c r="O8" s="62">
         <v>94.6</v>
       </c>
-      <c r="P8" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="87">
+      <c r="P8" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="62">
         <v>26.3</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="60">
         <v>62</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="60">
         <v>58</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="60">
         <v>58</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="60">
         <v>2</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="85">
+      <c r="F9" s="61"/>
+      <c r="G9" s="60">
         <v>58</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="60">
         <v>62</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="60">
         <v>58</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="60">
         <v>58</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="60">
         <v>2</v>
       </c>
-      <c r="L9" s="86"/>
-      <c r="M9" s="85">
+      <c r="L9" s="61"/>
+      <c r="M9" s="60">
         <v>58</v>
       </c>
-      <c r="N9" s="87">
+      <c r="N9" s="62">
         <v>93.5</v>
       </c>
-      <c r="O9" s="87">
+      <c r="O9" s="62">
         <v>93.5</v>
       </c>
-      <c r="P9" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="87">
+      <c r="P9" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="62">
         <v>3.8</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="60">
         <v>48</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="60">
         <v>52</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="60">
         <v>50</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="85">
+      <c r="E10" s="63"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60">
         <v>36</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="60">
         <v>48</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="60">
         <v>52</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="60">
         <v>50</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="85">
+      <c r="K10" s="63"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="60">
         <v>36</v>
       </c>
-      <c r="N10" s="87">
+      <c r="N10" s="62">
         <v>108.3</v>
       </c>
-      <c r="O10" s="87">
+      <c r="O10" s="62">
         <v>75</v>
       </c>
-      <c r="P10" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="87">
+      <c r="P10" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="62">
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="60">
         <v>28</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="60">
         <v>24</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="60">
         <v>23</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="85">
+      <c r="E11" s="63"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="60">
         <v>23</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="60">
         <v>28</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="60">
         <v>24</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="60">
         <v>23</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="85">
+      <c r="K11" s="63"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="60">
         <v>23</v>
       </c>
-      <c r="N11" s="87">
+      <c r="N11" s="62">
         <v>85.7</v>
       </c>
-      <c r="O11" s="87">
+      <c r="O11" s="62">
         <v>82.1</v>
       </c>
-      <c r="P11" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="87">
+      <c r="P11" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="62">
         <v>11.6</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="60">
         <v>20</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="60">
         <v>19</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="60">
         <v>18</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="85">
+      <c r="E12" s="63"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60">
         <v>18</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="60">
         <v>20</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="60">
         <v>19</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="60">
         <v>18</v>
       </c>
-      <c r="K12" s="88"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="85">
+      <c r="K12" s="63"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="60">
         <v>18</v>
       </c>
-      <c r="N12" s="87">
+      <c r="N12" s="62">
         <v>95</v>
       </c>
-      <c r="O12" s="87">
+      <c r="O12" s="62">
         <v>90</v>
       </c>
-      <c r="P12" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="87">
+      <c r="P12" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="62">
         <v>2.4</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="60">
         <v>31</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="60">
         <v>26</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="60">
         <v>25</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="85">
+      <c r="E13" s="63"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="60">
         <v>25</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="60">
         <v>31</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="60">
         <v>26</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="60">
         <v>25</v>
       </c>
-      <c r="K13" s="88"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="85">
+      <c r="K13" s="63"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="60">
         <v>25</v>
       </c>
-      <c r="N13" s="87">
+      <c r="N13" s="62">
         <v>83.9</v>
       </c>
-      <c r="O13" s="87">
+      <c r="O13" s="62">
         <v>80.599999999999994</v>
       </c>
-      <c r="P13" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="87">
+      <c r="P13" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="62">
         <v>12.5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B14" s="60">
         <v>70</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="60">
         <v>74</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="60">
         <v>73</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="85">
+      <c r="E14" s="63"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="60">
         <v>70</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="60">
         <v>70</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I14" s="60">
         <v>74</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J14" s="60">
         <v>73</v>
       </c>
-      <c r="K14" s="88"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="85">
+      <c r="K14" s="63"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="60">
         <v>70</v>
       </c>
-      <c r="N14" s="87">
+      <c r="N14" s="62">
         <v>105.7</v>
       </c>
-      <c r="O14" s="87">
+      <c r="O14" s="62">
         <v>100</v>
       </c>
-      <c r="P14" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="87">
+      <c r="P14" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="62">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="60">
         <v>77</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="60">
         <v>72</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="60">
         <v>72</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="85">
+      <c r="E15" s="63"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="60">
         <v>72</v>
       </c>
-      <c r="H15" s="85">
+      <c r="H15" s="60">
         <v>77</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="60">
         <v>72</v>
       </c>
-      <c r="J15" s="85">
+      <c r="J15" s="60">
         <v>72</v>
       </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="85">
+      <c r="K15" s="63"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="60">
         <v>72</v>
       </c>
-      <c r="N15" s="87">
+      <c r="N15" s="62">
         <v>93.5</v>
       </c>
-      <c r="O15" s="87">
+      <c r="O15" s="62">
         <v>93.5</v>
       </c>
-      <c r="P15" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="87">
+      <c r="P15" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="62">
         <v>16.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="89">
+      <c r="B16" s="64">
         <v>784</v>
       </c>
-      <c r="C16" s="89">
+      <c r="C16" s="64">
         <v>759</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="64">
         <v>726</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="64">
         <v>3</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="89">
+      <c r="F16" s="54"/>
+      <c r="G16" s="64">
         <v>672</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H16" s="64">
         <v>784</v>
       </c>
-      <c r="I16" s="89">
+      <c r="I16" s="64">
         <v>759</v>
       </c>
-      <c r="J16" s="89">
+      <c r="J16" s="64">
         <v>726</v>
       </c>
-      <c r="K16" s="89">
+      <c r="K16" s="64">
         <v>3</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="89">
+      <c r="L16" s="54"/>
+      <c r="M16" s="64">
         <v>672</v>
       </c>
-      <c r="N16" s="90">
+      <c r="N16" s="65">
         <v>96.8</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O16" s="65">
         <v>85.7</v>
       </c>
-      <c r="P16" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="90">
+      <c r="P16" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="65">
         <v>26.3</v>
       </c>
     </row>

--- a/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/1.1. Операторы (1С, Все ТА).xlsx
+++ b/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/1.1. Операторы (1С, Все ТА).xlsx
@@ -1,118 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>Период</t>
-  </si>
-  <si>
-    <t>ПЛАН</t>
-  </si>
-  <si>
-    <t>ФАКТ</t>
-  </si>
-  <si>
-    <t>Отчет "i"</t>
-  </si>
-  <si>
-    <t>Ручной отчет "i"</t>
-  </si>
-  <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>Выполнение плана</t>
-  </si>
-  <si>
-    <t>Воронеж</t>
-  </si>
-  <si>
-    <t>15.12.2022</t>
-  </si>
-  <si>
-    <t>Калининград</t>
-  </si>
-  <si>
-    <t>Липецк</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Наб.Челны</t>
-  </si>
-  <si>
-    <t>Нижний Новгород</t>
-  </si>
-  <si>
-    <t>Самара</t>
-  </si>
-  <si>
-    <t>Саратов</t>
-  </si>
-  <si>
-    <t>Старый Оскол</t>
-  </si>
-  <si>
-    <t>Тольятти</t>
-  </si>
-  <si>
-    <t>Тула</t>
-  </si>
-  <si>
-    <t>Уфа</t>
-  </si>
-  <si>
-    <t>Ярославль</t>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">Организация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Период</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЛАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФАКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отчет "i"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ручной отчет "i"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение плана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воронеж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калининград</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Липецк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наб.Челны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижний Новгород</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саратов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Старый Оскол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тольятти</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тула</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уфа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ярославль</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="50" formatCode=""/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
-      <sz val="8"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <sz val="8"/>
-      <u val="none"/>
+      <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <sz val="10"/>
-      <u val="none"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,94 +136,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F4ECC5"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFF4ECC5"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="CCC085"/>
+        <color rgb="FFCCC085"/>
       </left>
       <right style="thin">
-        <color rgb="CCC085"/>
+        <color rgb="FFCCC085"/>
       </right>
       <top style="thin">
-        <color rgb="CCC085"/>
+        <color rgb="FFCCC085"/>
       </top>
       <bottom style="thin">
-        <color rgb="CCC085"/>
+        <color rgb="FFCCC085"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf/>
-    <xf applyAlignment="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" borderId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="1" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCC085"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF4ECC5"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-    <pageSetUpPr autoPageBreaks="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="H14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
+  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="11.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="14" style="1" customWidth="true"/>
-    <col min="3" max="3" width="8.16796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="8.16796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.16796875" style="1" customWidth="true"/>
-    <col min="6" max="6" width="8.16796875" style="1" customWidth="true"/>
-    <col min="7" max="7" width="8.16796875" style="1" customWidth="true"/>
-    <col min="8" max="8" width="8.16796875" style="1" customWidth="true"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="8.17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" customHeight="true">
+    <row r="1" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -237,7 +335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="11" customHeight="true">
+    <row r="2" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -256,12 +354,12 @@
       <c r="F2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="e"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="4" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="3" ht="11" customHeight="true">
+    <row r="3" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -277,13 +375,13 @@
       <c r="E3" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="F3" s="6" t="e"/>
-      <c r="G3" s="5" t="e"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="4" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="4" ht="11" customHeight="true">
+    <row r="4" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -302,12 +400,12 @@
       <c r="F4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="e"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="4" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="11" customHeight="true">
+    <row r="5" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -323,13 +421,13 @@
       <c r="E5" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="F5" s="6" t="e"/>
-      <c r="G5" s="5" t="e"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="4" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="6" ht="11" customHeight="true">
+    <row r="6" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -345,13 +443,13 @@
       <c r="E6" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F6" s="6" t="e"/>
-      <c r="G6" s="5" t="e"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="4" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="7" ht="11" customHeight="true">
+    <row r="7" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -367,13 +465,13 @@
       <c r="E7" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="F7" s="6" t="e"/>
-      <c r="G7" s="5" t="e"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="4" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="8" ht="11" customHeight="true">
+    <row r="8" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -389,13 +487,13 @@
       <c r="E8" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="F8" s="6" t="e"/>
-      <c r="G8" s="5" t="e"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="4" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="9" ht="11" customHeight="true">
+    <row r="9" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -411,13 +509,13 @@
       <c r="E9" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="F9" s="6" t="e"/>
-      <c r="G9" s="5" t="e"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="4" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="10" ht="11" customHeight="true">
+    <row r="10" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -433,13 +531,13 @@
       <c r="E10" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="F10" s="6" t="e"/>
-      <c r="G10" s="5" t="e"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="4" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="11" customHeight="true">
+    <row r="11" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -455,13 +553,13 @@
       <c r="E11" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F11" s="6" t="e"/>
-      <c r="G11" s="5" t="e"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="11" customHeight="true">
+    <row r="12" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -477,13 +575,13 @@
       <c r="E12" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="F12" s="6" t="e"/>
-      <c r="G12" s="5" t="e"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="4" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="13" ht="11" customHeight="true">
+    <row r="13" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -499,13 +597,13 @@
       <c r="E13" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="F13" s="6" t="e"/>
-      <c r="G13" s="5" t="e"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="4" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="14" ht="11" customHeight="true">
+    <row r="14" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -524,13 +622,18 @@
       <c r="F14" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="5" t="e"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="4" t="n">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" top="0.75" right="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>